--- a/localstack/schedule_34_locations_sample.xlsx
+++ b/localstack/schedule_34_locations_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="QUERIES" sheetId="1" state="visible" r:id="rId2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
   <si>
     <t xml:space="preserve">Location type</t>
   </si>
@@ -135,10 +135,10 @@
     <t xml:space="preserve">County Court</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedford County Court</t>
+    <t xml:space="preserve">Freds County Court</t>
   </si>
   <si>
-    <t xml:space="preserve">BDFRCT</t>
+    <t xml:space="preserve">FRDCT</t>
   </si>
   <si>
     <t xml:space="preserve">Periodic</t>
@@ -150,16 +150,16 @@
     <t xml:space="preserve">Active</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedford</t>
+    <t xml:space="preserve">Fredford</t>
   </si>
   <si>
-    <t xml:space="preserve">Bedfordshire</t>
+    <t xml:space="preserve">Fredfordshire</t>
   </si>
   <si>
-    <t xml:space="preserve">May House, 29 Goldrington Road</t>
+    <t xml:space="preserve">England</t>
   </si>
   <si>
-    <t xml:space="preserve">MK40 3NN</t>
+    <t xml:space="preserve">FR31 3ZZ</t>
   </si>
   <si>
     <t xml:space="preserve">Lot 2 - Lon &amp; EofE</t>
@@ -189,16 +189,19 @@
     <t xml:space="preserve">Prison</t>
   </si>
   <si>
-    <t xml:space="preserve">HMP Bedford</t>
+    <t xml:space="preserve">HMP Fred</t>
   </si>
   <si>
     <t xml:space="preserve">BFI</t>
   </si>
   <si>
-    <t xml:space="preserve">St Loyes St</t>
+    <t xml:space="preserve">Fred</t>
   </si>
   <si>
-    <t xml:space="preserve">MK40 1HG</t>
+    <t xml:space="preserve">Fred St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD40 1HG</t>
   </si>
   <si>
     <t xml:space="preserve">Bedfordshire, Cambridgeshire &amp; Norfolk</t>
@@ -793,7 +796,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,7 +852,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -882,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>11</v>
@@ -1938,7 +1941,7 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1973,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>11</v>
@@ -3039,7 +3042,7 @@
   <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3072,13 +3075,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>14</v>
@@ -3105,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" s="26" t="s">
         <v>26</v>
@@ -4131,7 +4134,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4161,7 +4164,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>11</v>
@@ -4176,7 +4179,7 @@
         <v>15</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>17</v>
@@ -5212,7 +5215,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="2:22 C35"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5226,13 +5229,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6353,7 +6356,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A812" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7220,7 +7223,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7944,7 +7947,7 @@
   <dimension ref="A1:A1046377"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10180,7 +10183,7 @@
   <dimension ref="G1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="2:22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11221,7 +11224,7 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12433,10 +12436,10 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13542,7 +13545,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14578,8 +14581,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="2:22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14694,16 +14697,16 @@
         <v>32</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>34</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>37</v>
@@ -14715,7 +14718,7 @@
         <v>250287</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>39</v>
